--- a/Assets/Tests/Editor/Gacha1.xlsx
+++ b/Assets/Tests/Editor/Gacha1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Gacha" sheetId="4" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <t>Group4</t>
   </si>
   <si>
-    <t>Array&lt;Int&gt;</t>
+    <t>List&lt;Int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD42"/>
     </sheetView>
   </sheetViews>
